--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W5_H200_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W5_H200_B32.xlsx
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08331303001111492</v>
+        <v>0.05699735363125487</v>
       </c>
       <c r="J2" t="n">
-        <v>1086.159693092127</v>
+        <v>736.4250207246256</v>
       </c>
       <c r="K2" t="n">
-        <v>1576632.298590373</v>
+        <v>730327.9613551389</v>
       </c>
       <c r="L2" t="n">
-        <v>1255.640194717568</v>
+        <v>854.5922778466577</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7052589799706139</v>
+        <v>0.8634699996452869</v>
       </c>
     </row>
   </sheetData>
